--- a/regression-results/Report - Regression Runs_Summaries-JI.xlsx
+++ b/regression-results/Report - Regression Runs_Summaries-JI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sifaat\FFC-Forecasting-Study\forecasting-study\regression-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B7BA03-42DA-4AAD-9694-24565691023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1BBCD4-D0E0-4D01-8323-D4CFDF8E4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5D1C55E5-96A3-4B43-BCBA-98C20E0AFC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5D1C55E5-96A3-4B43-BCBA-98C20E0AFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlations" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="99">
   <si>
     <t xml:space="preserve">PRE-DIAGNOSTICS - CORRELATION TABLE FOR INDEPENDENT REGRESSION VARIABLES </t>
   </si>
@@ -448,6 +448,72 @@
   <si>
     <t xml:space="preserve">INDEPENDENT REGRESSION LIN LOG VARIABLES - PARAMETERS </t>
   </si>
+  <si>
+    <t>Lin Log  Elasticity Coeff</t>
+  </si>
+  <si>
+    <t>DW Watson Test</t>
+  </si>
+  <si>
+    <t>Autocorrelation</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Weak Negative AC</t>
+  </si>
+  <si>
+    <t>White Test</t>
+  </si>
+  <si>
+    <t>Errors are homoscedastic</t>
+  </si>
+  <si>
+    <t>INDEPENDENT LINEAR REGRESSION MODEL DIAGONISTICS</t>
+  </si>
+  <si>
+    <t>Shapiro Test</t>
+  </si>
+  <si>
+    <t>Errors distributed normally</t>
+  </si>
+  <si>
+    <t>Table 2.1</t>
+  </si>
+  <si>
+    <t>Plot 2.1: Actual Vs Fitted Values</t>
+  </si>
+  <si>
+    <t>Plot 2.2: Residual Over time</t>
+  </si>
+  <si>
+    <t>Plot 2.3: Residual QQ Plot</t>
+  </si>
+  <si>
+    <t>Plot 2.4: Histogram of Residuals</t>
+  </si>
+  <si>
+    <t>Plot 2.5: ACF Plot of Residuals</t>
+  </si>
+  <si>
+    <t>Plot 2.6: Residuals Vs Fitted Values</t>
+  </si>
+  <si>
+    <t>Plot 2.7: Scale Location Plot of Standardized Residuals</t>
+  </si>
+  <si>
+    <t>Plot 2.8: Cook's Distance Plot</t>
+  </si>
+  <si>
+    <t>Plot 2.9: Residual Vs Leverage Plot</t>
+  </si>
 </sst>
 </file>
 
@@ -460,7 +526,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,13 +578,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -619,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,25 +730,46 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,6 +787,461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>179410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>90120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D197442C-B26F-F313-B35D-50C030847ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22972735"/>
+          <a:ext cx="7362825" cy="4863710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>608859</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>17076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179FF809-BDE4-6A80-EC30-B7B769023B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608859" y="28632151"/>
+          <a:ext cx="6372965" cy="3512750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>103488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACDB662-E804-E9A4-6881-0D032BB5DEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="47463075"/>
+          <a:ext cx="6353176" cy="3818238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573719</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7337D520-EA49-7650-0A34-9D2F46955860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="52187476"/>
+          <a:ext cx="6374444" cy="3943349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>41103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>94533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00DBC99-EFAD-6724-B05B-0EE4B0C91D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609603" y="58267428"/>
+          <a:ext cx="6476997" cy="4053930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596518</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>125326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8184067-7A9E-793C-0F8C-FFEADCDA6BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596518" y="16325851"/>
+          <a:ext cx="7404482" cy="5640300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>26389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>182062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F93F7A6-2689-7F12-198A-A690FF1DC815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="33106714"/>
+          <a:ext cx="6438900" cy="4537173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33291</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>85238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65C81E9-C34D-660A-8C1C-69986A1250AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642891" y="38242875"/>
+          <a:ext cx="6377034" cy="3685688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>180174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E2D875-0342-8DB7-AC3C-37886F836AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="42824400"/>
+          <a:ext cx="6400800" cy="3771099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BEBFF8-48D8-4552-B3CF-92ECDE88DD45}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,28 +1906,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1F66F-6B1A-47BA-B6E8-50FB1B5C3937}">
-  <dimension ref="B2:S69"/>
+  <dimension ref="B2:S288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1412,6 +1941,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="5" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>17</v>
@@ -1999,195 +2533,211 @@
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15">
+        <v>25260.869569999999</v>
+      </c>
+      <c r="D17" s="15">
+        <v>133.78</v>
+      </c>
+      <c r="E17" s="15">
+        <v>23.01</v>
+      </c>
+      <c r="F17" s="15">
+        <v>16.648929800000001</v>
+      </c>
+      <c r="G17" s="15">
+        <v>211561</v>
+      </c>
+      <c r="H17" s="15">
+        <v>45.750175400000003</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="13">
+        <v>25260.869569999999</v>
+      </c>
+      <c r="M17" s="13">
+        <v>133.78</v>
+      </c>
+      <c r="N17" s="13">
+        <v>23.01</v>
+      </c>
+      <c r="O17" s="13">
+        <v>16.648929800000001</v>
+      </c>
+      <c r="P17" s="13">
+        <v>211561</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>45.750175400000003</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.97050139999999996</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0.37596190000000002</v>
+      </c>
     </row>
     <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="15">
+        <v>28627.372567070001</v>
+      </c>
+      <c r="D18" s="15">
+        <v>4.3487205800000002</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.67129057000000003</v>
+      </c>
+      <c r="F18" s="15">
+        <v>7.8548224500000003</v>
+      </c>
+      <c r="G18" s="15">
+        <v>441331.52875244</v>
+      </c>
+      <c r="H18" s="15">
+        <v>65.450477980000002</v>
+      </c>
       <c r="K18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="K19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
+        <v>15</v>
+      </c>
+      <c r="L18" s="13">
+        <v>28627.372567070001</v>
+      </c>
+      <c r="M18" s="13">
+        <v>4.3487205800000002</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.67129057000000003</v>
+      </c>
+      <c r="O18" s="13">
+        <v>7.8548224500000003</v>
+      </c>
+      <c r="P18" s="13">
+        <v>441331.52875244</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>65.450477980000002</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.15834402</v>
+      </c>
+      <c r="S18" s="13">
+        <v>8.0331959999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="15">
-        <v>25260.869569999999</v>
-      </c>
-      <c r="D20" s="15">
-        <v>133.78</v>
-      </c>
-      <c r="E20" s="15">
-        <v>23.01</v>
-      </c>
-      <c r="F20" s="15">
-        <v>16.648929800000001</v>
-      </c>
-      <c r="G20" s="15">
-        <v>211561</v>
-      </c>
-      <c r="H20" s="15">
-        <v>45.750175400000003</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="13">
-        <v>25260.869569999999</v>
-      </c>
-      <c r="M20" s="13">
-        <v>133.78</v>
-      </c>
-      <c r="N20" s="13">
-        <v>23.01</v>
-      </c>
-      <c r="O20" s="13">
-        <v>16.648929800000001</v>
-      </c>
-      <c r="P20" s="13">
-        <v>211561</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>45.750175400000003</v>
-      </c>
-      <c r="R20" s="13">
-        <v>0.97050139999999996</v>
-      </c>
-      <c r="S20" s="13">
-        <v>0.37596190000000002</v>
-      </c>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="41">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="K20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="41">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
     </row>
     <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="15">
-        <v>28627.372567070001</v>
-      </c>
-      <c r="D21" s="15">
-        <v>4.3487205800000002</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.67129057000000003</v>
-      </c>
-      <c r="F21" s="15">
-        <v>7.8548224500000003</v>
-      </c>
-      <c r="G21" s="15">
-        <v>441331.52875244</v>
-      </c>
-      <c r="H21" s="15">
-        <v>65.450477980000002</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="13">
-        <v>28627.372567070001</v>
-      </c>
-      <c r="M21" s="13">
-        <v>4.3487205800000002</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0.67129057000000003</v>
-      </c>
-      <c r="O21" s="13">
-        <v>7.8548224500000003</v>
-      </c>
-      <c r="P21" s="13">
-        <v>441331.52875244</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>65.450477980000002</v>
-      </c>
-      <c r="R21" s="13">
-        <v>0.15834402</v>
-      </c>
-      <c r="S21" s="13">
-        <v>8.0331959999999994E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+    </row>
+    <row r="22" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35">
+        <v>-0.183</v>
+      </c>
+      <c r="D22" s="35">
+        <v>2.236059</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="27">
-        <v>0.89949999999999997</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="K23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="27">
-        <v>0.90529999999999999</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-    </row>
-    <row r="24" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>84</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36">
+        <v>3.9453</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.1391</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36">
+        <v>0.98007</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.84</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+    </row>
     <row r="25" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
@@ -2529,22 +3079,22 @@
       <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="13">
         <v>270.22919999999999</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="13">
         <v>7.8691000000000004</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="13">
         <v>11.508900000000001</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="13">
         <v>26.261700000000001</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="13">
         <v>9.3896999999999995</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="13">
         <v>6.0850999999999997</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -2579,22 +3129,22 @@
       <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="32">
         <v>7.6739999999999997E-14</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="32">
         <v>1.0312999999999999E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="32">
         <v>2.6180000000000001E-3</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="32">
         <v>3.898100251792E-5</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="32">
         <v>5.6800000000000002E-3</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="32">
         <v>2.1895000000000001E-2</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -2606,10 +3156,10 @@
       <c r="M37" s="13">
         <v>1.4213E-2</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="33">
         <v>4.0280000000000003E-3</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="32">
         <v>8.52378452475E-5</v>
       </c>
       <c r="P37" s="13">
@@ -2880,27 +3430,27 @@
       <c r="B45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="41">
         <v>0.93769999999999998</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
       <c r="K45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="41">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
     </row>
     <row r="50" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
@@ -3008,102 +3558,220 @@
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C55" s="13">
+        <v>-618.79999999999995</v>
+      </c>
+      <c r="D55" s="13">
+        <v>-858.1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="F55" s="13">
+        <v>732.3</v>
+      </c>
+      <c r="G55" s="13">
+        <v>114.2</v>
+      </c>
+      <c r="H55" s="13">
+        <v>496.7</v>
+      </c>
       <c r="K55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="L55" s="13">
+        <v>-398</v>
+      </c>
+      <c r="M55" s="13">
+        <v>-435.8</v>
+      </c>
+      <c r="N55" s="13">
+        <v>-166.4</v>
+      </c>
+      <c r="O55" s="13">
+        <v>689.5</v>
+      </c>
+      <c r="P55" s="13">
+        <v>133.5</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>337.8</v>
+      </c>
+      <c r="R55" s="13">
+        <v>213.5</v>
+      </c>
+      <c r="S55" s="24">
+        <v>-133.19999999999999</v>
+      </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="C56" s="13">
+        <v>-2.9079999999999999</v>
+      </c>
+      <c r="D56" s="13">
+        <v>-0.63600000000000001</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1.73</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H56" s="13">
+        <v>2.2890000000000001</v>
+      </c>
       <c r="K56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="24"/>
+      <c r="L56" s="13">
+        <v>-1.054</v>
+      </c>
+      <c r="M56" s="13">
+        <v>-0.223</v>
+      </c>
+      <c r="N56" s="13">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="O56" s="13">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="R56" s="13">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="S56" s="24">
+        <v>-0.51900000000000002</v>
+      </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="C57" s="13">
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.53141000000000005</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.7702</v>
+      </c>
+      <c r="F57" s="13">
+        <v>9.7570000000000004E-2</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.4758</v>
+      </c>
+      <c r="H57" s="13">
+        <v>3.2050000000000002E-2</v>
+      </c>
       <c r="K57" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="24"/>
+      <c r="L57" s="13">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="O57" s="13">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="P57" s="13">
+        <v>0.497</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>0.248</v>
+      </c>
+      <c r="R57" s="13">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="S57" s="24">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
+      <c r="C58" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="K58" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L58" s="18"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
+      <c r="L58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="21">
+        <v>0.99</v>
+      </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="F59" s="21">
+        <v>0.9</v>
+      </c>
       <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="H59" s="21">
+        <v>0.95</v>
+      </c>
       <c r="K59" s="9" t="s">
         <v>36</v>
       </c>
@@ -3120,87 +3788,191 @@
       <c r="B60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="C60" s="13">
+        <v>237.51759999999999</v>
+      </c>
+      <c r="D60" s="13">
+        <v>2.3288000000000002</v>
+      </c>
+      <c r="E60" s="13">
+        <v>9.8490000000000002</v>
+      </c>
+      <c r="F60" s="13">
+        <v>24.9954</v>
+      </c>
+      <c r="G60" s="13">
+        <v>10.149100000000001</v>
+      </c>
+      <c r="H60" s="13">
+        <v>5.2389999999999999</v>
+      </c>
       <c r="K60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
+      <c r="L60" s="13">
+        <v>224.91569999999999</v>
+      </c>
+      <c r="M60" s="13">
+        <v>2.2052999999999998</v>
+      </c>
+      <c r="N60" s="13">
+        <v>9.3264999999999993</v>
+      </c>
+      <c r="O60" s="13">
+        <v>23.6693</v>
+      </c>
+      <c r="P60" s="13">
+        <v>9.6105999999999998</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="R60" s="13">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="S60" s="13">
+        <v>0.26910000000000001</v>
+      </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="C61" s="4">
+        <v>2.8460000000000002E-13</v>
+      </c>
+      <c r="D61" s="13">
+        <v>0.14124500000000001</v>
+      </c>
+      <c r="E61" s="33">
+        <v>4.777E-3</v>
+      </c>
+      <c r="F61" s="32">
+        <v>5.27423231349E-5</v>
+      </c>
+      <c r="G61" s="33">
+        <v>4.2729999999999999E-3</v>
+      </c>
+      <c r="H61" s="12">
+        <v>3.2052999999999998E-2</v>
+      </c>
       <c r="K61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
+      <c r="L61" s="4">
+        <v>2.4150000000000001E-12</v>
+      </c>
+      <c r="M61" s="13">
+        <v>0.15312999999999999</v>
+      </c>
+      <c r="N61" s="13">
+        <v>6.2659999999999999E-3</v>
+      </c>
+      <c r="O61" s="32">
+        <v>9.3779385808000006E-5</v>
+      </c>
+      <c r="P61" s="13">
+        <v>5.6439999999999997E-3</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>3.7571E-2</v>
+      </c>
+      <c r="R61" s="13">
+        <v>0.46152100000000001</v>
+      </c>
+      <c r="S61" s="13">
+        <v>0.60964799999999997</v>
+      </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="C62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="K62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
+      <c r="L62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S62" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="21">
+        <v>0.99</v>
+      </c>
       <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="E63" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="H63" s="21">
+        <v>0.95</v>
+      </c>
       <c r="K63" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L63" s="21"/>
+      <c r="L63" s="21">
+        <v>0.99</v>
+      </c>
       <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
+      <c r="N63" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="O63" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="P63" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>0.95</v>
+      </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
@@ -3252,45 +4024,101 @@
       <c r="B66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+      <c r="C66" s="13">
+        <v>10.1370118</v>
+      </c>
+      <c r="D66" s="13">
+        <v>4.8961967</v>
+      </c>
+      <c r="E66" s="13">
+        <v>3.1359289000000001</v>
+      </c>
+      <c r="F66" s="13">
+        <v>2.8123459</v>
+      </c>
+      <c r="G66" s="13">
+        <v>12.2622687</v>
+      </c>
+      <c r="H66" s="13">
+        <v>3.8231956</v>
+      </c>
       <c r="K66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
+      <c r="L66" s="13">
+        <v>10.1370118</v>
+      </c>
+      <c r="M66" s="13">
+        <v>4.8961967</v>
+      </c>
+      <c r="N66" s="13">
+        <v>3.1359289000000001</v>
+      </c>
+      <c r="O66" s="13">
+        <v>2.8123459</v>
+      </c>
+      <c r="P66" s="13">
+        <v>12.2622687</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>3.8231956</v>
+      </c>
+      <c r="R66" s="13">
+        <v>-2.9942400000000001E-2</v>
+      </c>
+      <c r="S66" s="13">
+        <v>-0.97826749999999996</v>
+      </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="C67" s="13">
+        <v>0.76928872999999998</v>
+      </c>
+      <c r="D67" s="13">
+        <v>3.2674689999999999E-2</v>
+      </c>
+      <c r="E67" s="13">
+        <v>2.9203030000000001E-2</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0.48294925999999999</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1.4311327</v>
+      </c>
+      <c r="H67" s="13">
+        <v>1.0960862899999999</v>
+      </c>
       <c r="K67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
+      <c r="L67" s="13">
+        <v>0.76928872999999998</v>
+      </c>
+      <c r="M67" s="13">
+        <v>3.2674689999999999E-2</v>
+      </c>
+      <c r="N67" s="13">
+        <v>2.9203030000000001E-2</v>
+      </c>
+      <c r="O67" s="13">
+        <v>0.48294925999999999</v>
+      </c>
+      <c r="P67" s="13">
+        <v>1.4311327</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>1.0960862899999999</v>
+      </c>
+      <c r="R67" s="13">
+        <v>0.17738045</v>
+      </c>
+      <c r="S67" s="13">
+        <v>0.26867327000000002</v>
+      </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K68" s="22"/>
@@ -3307,38 +4135,94 @@
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="27">
-        <v>0.93769999999999998</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
+      <c r="C69" s="41">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
       <c r="K69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L69" s="27">
-        <v>0.93830000000000002</v>
-      </c>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+    </row>
+    <row r="72" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="75" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="22"/>
+    </row>
+    <row r="214" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B214" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B238" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B263" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B288" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="L20:S20"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="L45:S45"/>
     <mergeCell ref="C69:H69"/>
     <mergeCell ref="L69:S69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3346,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BE7346-DFF9-4F39-8295-2A32804F99B3}">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,12 +4245,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
+    <row r="3" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
       <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
@@ -3392,245 +4276,245 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>1</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>43335116.93</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>1818619663.0599999</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>12441767.369999999</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>191309.85</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>32685839312.189999</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>126994887993.28</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>41.97</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>0</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>0</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>754.26</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>2930.53</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>0.02</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>0.01</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="28">
         <v>0</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>17.97</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="28">
         <v>69.83</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>3.48</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>146.16999999999999</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <v>0.02</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>2627.11</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>10207.14</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>237.67</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>10299280864.790001</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>432223933477.03998</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>2956984211.5300002</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>1</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>45467833.829999998</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>7768310396890.7803</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>30182358156010.5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>226.52</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>9506.15</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>65.03</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>0</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="28">
         <v>1</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>170852.88</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>663817.81999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>0</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>0.06</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>0</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>0</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>1</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="28">
         <v>3.89</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>0</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>0.01</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>0</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="28">
         <v>0</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>0.26</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3656,235 +4540,235 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="42" t="s">
         <v>40</v>
       </c>
     </row>

--- a/regression-results/Report - Regression Runs_Summaries-JI.xlsx
+++ b/regression-results/Report - Regression Runs_Summaries-JI.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sifaat\FFC-Forecasting-Study\forecasting-study\regression-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1BBCD4-D0E0-4D01-8323-D4CFDF8E4F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9622E1-AA45-4741-A0EB-ABDE2FE48BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{5D1C55E5-96A3-4B43-BCBA-98C20E0AFC06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5D1C55E5-96A3-4B43-BCBA-98C20E0AFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlations" sheetId="1" r:id="rId1"/>
     <sheet name="Regression 1st Run" sheetId="2" r:id="rId2"/>
-    <sheet name="F-ratios" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="F-ratios" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="109">
   <si>
     <t xml:space="preserve">PRE-DIAGNOSTICS - CORRELATION TABLE FOR INDEPENDENT REGRESSION VARIABLES </t>
   </si>
@@ -513,6 +514,36 @@
   </si>
   <si>
     <t>Plot 2.9: Residual Vs Leverage Plot</t>
+  </si>
+  <si>
+    <t>Fiscal_Year</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Historic_Values</t>
+  </si>
+  <si>
+    <t>Predicted_Values</t>
+  </si>
+  <si>
+    <t>1_std_dev_plus</t>
+  </si>
+  <si>
+    <t>1_std_dev_minus</t>
+  </si>
+  <si>
+    <t>2_std_dev_plus</t>
+  </si>
+  <si>
+    <t>2_std_dev_minus</t>
+  </si>
+  <si>
+    <t>predicted_mean</t>
+  </si>
+  <si>
+    <t>Std_Predicted</t>
   </si>
 </sst>
 </file>
@@ -766,11 +797,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,6 +818,1091 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted_Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7208074288060745E-3"/>
+                  <c:y val="-0.18509858267716536"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1825.04895454807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1951.8537312164799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2115.51978726281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2113.8146266349499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1950.3161917426501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2180.44220299382</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2223.60984163598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2437.1560137796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2290.0597972751202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2176.03692666194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2397.9884381884499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2553.2139284925001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2668.05373827724</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2734.9970896692298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3005.4702842695501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3173.0351340867501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3133.8181887953701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3183.63712112648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3127.0561565324701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2947.5699009017999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3101.2656810917902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3211.7953922361999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3125.0681565472701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3365.9720274799602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3640.5569667344098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3393.2961183779298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3134.18986191153</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3565.0863035304701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4182.0714379991696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D31-4287-A250-2DF105F6E523}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="692084175"/>
+        <c:axId val="692083695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="692084175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692083695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="692083695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692084175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,6 +2360,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7296A0F2-D596-0E61-0CB0-18031BFDE14F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1564,23 +2721,23 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -1607,7 +2764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1633,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1665,7 +2822,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1697,7 +2854,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1729,7 +2886,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1761,7 +2918,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1793,7 +2950,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1825,7 +2982,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1857,7 +3014,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1889,16 +3046,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1908,24 +3065,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1F66F-6B1A-47BA-B6E8-50FB1B5C3937}">
   <dimension ref="B2:S288"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
-    <col min="12" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1933,7 +3090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1941,12 +3098,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +3147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2034,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +3241,7 @@
         <v>-42.618754549999998</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +3305,7 @@
         <v>-3.1559999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +3355,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -2248,7 +3405,7 @@
         <v>0.97162999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +3455,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -2332,7 +3489,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
@@ -2384,7 +3541,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +3593,7 @@
         <v>0.97162780000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
@@ -2486,7 +3643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
@@ -2532,7 +3689,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +3739,7 @@
         <v>0.37596190000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
@@ -2632,34 +3789,34 @@
         <v>8.0331959999999994E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>0.89949999999999997</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
       <c r="K20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="42">
         <v>0.90529999999999999</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-    </row>
-    <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>78</v>
       </c>
@@ -2687,7 +3844,7 @@
       <c r="R21" s="40"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35"/>
       <c r="C22" s="35">
         <v>-0.183</v>
@@ -2704,7 +3861,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>84</v>
       </c>
@@ -2721,7 +3878,7 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>87</v>
       </c>
@@ -2738,8 +3895,8 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +3904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +3912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
@@ -2799,7 +3956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2843,7 +4000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
@@ -2893,7 +4050,7 @@
         <v>-3.1559999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +4100,7 @@
         <v>-0.34100000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +4150,7 @@
         <v>0.73660000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +4200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
@@ -3075,7 +4232,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +4282,7 @@
         <v>0.1163</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
@@ -3175,7 +4332,7 @@
         <v>0.73658599999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>34</v>
       </c>
@@ -3225,7 +4382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>36</v>
       </c>
@@ -3271,7 +4428,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>12</v>
       </c>
@@ -3293,7 +4450,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +4472,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>14</v>
       </c>
@@ -3365,7 +4522,7 @@
         <v>-0.97826749999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>15</v>
       </c>
@@ -3415,7 +4572,7 @@
         <v>0.26867327000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="17"/>
@@ -3426,33 +4583,33 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="42">
         <v>0.93769999999999998</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
       <c r="K45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="42">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-    </row>
-    <row r="50" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+    </row>
+    <row r="50" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>76</v>
       </c>
@@ -3460,7 +4617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>32</v>
       </c>
@@ -3468,7 +4625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C53" s="11" t="s">
         <v>17</v>
       </c>
@@ -3512,7 +4669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
@@ -3556,7 +4713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>77</v>
       </c>
@@ -3606,7 +4763,7 @@
         <v>-133.19999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>8</v>
       </c>
@@ -3656,7 +4813,7 @@
         <v>-0.51900000000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +4863,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>34</v>
       </c>
@@ -3756,7 +4913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>36</v>
       </c>
@@ -3784,7 +4941,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>10</v>
       </c>
@@ -3834,7 +4991,7 @@
         <v>0.26910000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>11</v>
       </c>
@@ -3884,7 +5041,7 @@
         <v>0.60964799999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
@@ -3934,7 +5091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>36</v>
       </c>
@@ -3976,7 +5133,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
@@ -3998,7 +5155,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +5177,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>14</v>
       </c>
@@ -4070,7 +5227,7 @@
         <v>-0.97826749999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>15</v>
       </c>
@@ -4120,7 +5277,7 @@
         <v>0.26867327000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="17"/>
@@ -4131,82 +5288,82 @@
       <c r="R68" s="17"/>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69" s="42">
         <v>0.92949999999999999</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
       <c r="K69" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-    </row>
-    <row r="72" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+    </row>
+    <row r="72" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
     </row>
-    <row r="75" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B162" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="22"/>
     </row>
-    <row r="214" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B214" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B238" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B288" s="11" t="s">
         <v>98</v>
       </c>
@@ -4227,29 +5384,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD79EFD-9FE4-4EF9-A20D-9E4A8F8AE032}">
+  <dimension ref="B1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1">
+        <f>AVERAGE(D3:D31)</f>
+        <v>2789.9310344827577</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1994</v>
+      </c>
+      <c r="C3">
+        <v>-166.048954548067</v>
+      </c>
+      <c r="D3">
+        <v>1825.04895454807</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.STDEV.P(D3:D31)</f>
+        <v>586.93468084352787</v>
+      </c>
+      <c r="F3">
+        <f>$O$1+$E3</f>
+        <v>3376.8657153262857</v>
+      </c>
+      <c r="G3">
+        <f>$O$1 -E3</f>
+        <v>2202.9963536392297</v>
+      </c>
+      <c r="H3">
+        <f>$O$1+2*$E3</f>
+        <v>3963.8003961698132</v>
+      </c>
+      <c r="I3">
+        <f>$O$1-2*$E3</f>
+        <v>1616.061672795702</v>
+      </c>
+      <c r="J3">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1995</v>
+      </c>
+      <c r="C4">
+        <v>-213.853731216478</v>
+      </c>
+      <c r="D4">
+        <v>1951.8537312164799</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.P(D4:D32)</f>
+        <v>567.76598333800234</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F31" si="0">$O$1+$E4</f>
+        <v>3357.6970178207603</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G31" si="1">$O$1 -E4</f>
+        <v>2222.1650511447551</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H31" si="2">$O$1+2*$E4</f>
+        <v>3925.4630011587624</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I31" si="3">$O$1-2*$E4</f>
+        <v>1654.399067806753</v>
+      </c>
+      <c r="J4">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1996</v>
+      </c>
+      <c r="C5">
+        <v>-124.519787262807</v>
+      </c>
+      <c r="D5">
+        <v>2115.51978726281</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.STDEV.P(D5:D33)</f>
+        <v>552.31872724285518</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3342.2497617256131</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2237.6123072399023</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3894.568488968468</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1685.2935799970473</v>
+      </c>
+      <c r="J5">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1997</v>
+      </c>
+      <c r="C6">
+        <v>-128.814626634951</v>
+      </c>
+      <c r="D6">
+        <v>2113.8146266349499</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.STDEV.P(D6:D34)</f>
+        <v>542.99820206796392</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3332.9292365507217</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2246.9328324147937</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3875.9274386186853</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1703.9346303468299</v>
+      </c>
+      <c r="J6">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1998</v>
+      </c>
+      <c r="C7">
+        <v>137.68380825735201</v>
+      </c>
+      <c r="D7">
+        <v>1950.3161917426501</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.STDEV.P(D7:D35)</f>
+        <v>530.92986828551034</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3320.8609027682678</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2259.0011661972476</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3851.7907710537784</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1728.071297911737</v>
+      </c>
+      <c r="J7">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1999</v>
+      </c>
+      <c r="C8">
+        <v>-82.4422029938181</v>
+      </c>
+      <c r="D8">
+        <v>2180.44220299382</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.STDEV.P(D8:D36)</f>
+        <v>503.1409670540977</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3293.0720015368552</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2286.7900674286602</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3796.2129685909531</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>1783.6491003745623</v>
+      </c>
+      <c r="J8">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>-5.6098416359839698</v>
+      </c>
+      <c r="D9">
+        <v>2223.60984163598</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.STDEV.P(D9:D37)</f>
+        <v>486.66907108591653</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3276.6001055686743</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2303.2619633968411</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>3763.2691766545909</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1816.5928923109245</v>
+      </c>
+      <c r="J9">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10">
+        <v>-172.15601377960499</v>
+      </c>
+      <c r="D10">
+        <v>2437.1560137796</v>
+      </c>
+      <c r="E10">
+        <f>_xlfn.STDEV.P(D10:D38)</f>
+        <v>468.7194491042211</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3258.6504835869787</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2321.2115853785367</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>3727.3699326912001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1852.4921362743155</v>
+      </c>
+      <c r="J10">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11">
+        <v>-5.0597972751247804</v>
+      </c>
+      <c r="D11">
+        <v>2290.0597972751202</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.STDEV.P(D11:D39)</f>
+        <v>461.4410302416498</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3251.3720647244077</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2328.4900042411077</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>3712.8130949660572</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1867.0489739994582</v>
+      </c>
+      <c r="J11">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12">
+        <v>172.963073338058</v>
+      </c>
+      <c r="D12">
+        <v>2176.03692666194</v>
+      </c>
+      <c r="E12">
+        <f>_xlfn.STDEV.P(D12:D40)</f>
+        <v>439.34686342019546</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3229.2778979029531</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2350.5841710625623</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3668.6247613231485</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1911.2373076423669</v>
+      </c>
+      <c r="J12">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2004</v>
+      </c>
+      <c r="C13">
+        <v>129.01156181154599</v>
+      </c>
+      <c r="D13">
+        <v>2397.9884381884499</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.STDEV.P(D13:D41)</f>
+        <v>395.98496512443353</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3185.9159996071912</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2393.9460693583242</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3581.9009647316248</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1997.9611042338906</v>
+      </c>
+      <c r="J13">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2005</v>
+      </c>
+      <c r="C14">
+        <v>242.78607150750099</v>
+      </c>
+      <c r="D14">
+        <v>2553.2139284925001</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.P(D14:D42)</f>
+        <v>365.10390109126251</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3155.03493557402</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2424.8271333914954</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3520.1388366652827</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2059.7232323002327</v>
+      </c>
+      <c r="J14">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15">
+        <v>258.94626172275599</v>
+      </c>
+      <c r="D15">
+        <v>2668.05373827724</v>
+      </c>
+      <c r="E15">
+        <f>_xlfn.STDEV.P(D15:D43)</f>
+        <v>341.53557548730549</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3131.466609970063</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2448.3954589954524</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3473.0021854573688</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2106.8598835081466</v>
+      </c>
+      <c r="J15">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2007</v>
+      </c>
+      <c r="C16">
+        <v>-85.9970896692259</v>
+      </c>
+      <c r="D16">
+        <v>2734.9970896692298</v>
+      </c>
+      <c r="E16">
+        <f>_xlfn.STDEV.P(D16:D44)</f>
+        <v>322.3492944846991</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3112.2803289674566</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2467.5817399980588</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3434.629623452156</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2145.2324455133594</v>
+      </c>
+      <c r="J16">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2008</v>
+      </c>
+      <c r="C17">
+        <v>-80.4702842695539</v>
+      </c>
+      <c r="D17">
+        <v>3005.4702842695501</v>
+      </c>
+      <c r="E17">
+        <f>_xlfn.STDEV.P(D17:D45)</f>
+        <v>303.08676445660467</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3093.0177989393624</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2486.844270026153</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>3396.104563395967</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2183.7575055695484</v>
+      </c>
+      <c r="J17">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2009</v>
+      </c>
+      <c r="C18">
+        <v>-139.03513408674701</v>
+      </c>
+      <c r="D18">
+        <v>3173.0351340867501</v>
+      </c>
+      <c r="E18">
+        <f>_xlfn.STDEV.P(D18:D46)</f>
+        <v>303.97487335634611</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3093.9059078391037</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2485.9561611264116</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3397.8807811954498</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2181.9812877700656</v>
+      </c>
+      <c r="J18">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>342.18181120463203</v>
+      </c>
+      <c r="D19">
+        <v>3133.8181887953701</v>
+      </c>
+      <c r="E19">
+        <f>_xlfn.STDEV.P(D19:D47)</f>
+        <v>313.11854980290161</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3103.0495842856594</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2476.812484679856</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>3416.1681340885607</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2163.6939348769547</v>
+      </c>
+      <c r="J19">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>-49.637121126483002</v>
+      </c>
+      <c r="D20">
+        <v>3183.63712112648</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.STDEV.P(D20:D48)</f>
+        <v>321.26093685279153</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3111.1919713355492</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2468.6700976299662</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>3432.4529081883406</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2147.4091607771747</v>
+      </c>
+      <c r="J20">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21">
+        <v>79.943843467533299</v>
+      </c>
+      <c r="D21">
+        <v>3127.0561565324701</v>
+      </c>
+      <c r="E21">
+        <f>_xlfn.STDEV.P(D21:D49)</f>
+        <v>332.30103395189457</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3122.2320684346523</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2457.6300005308631</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3454.5331023865469</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2125.3289665789684</v>
+      </c>
+      <c r="J21">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2013</v>
+      </c>
+      <c r="C22">
+        <v>-93.569900901797496</v>
+      </c>
+      <c r="D22">
+        <v>2947.5699009017999</v>
+      </c>
+      <c r="E22">
+        <f>_xlfn.STDEV.P(D22:D50)</f>
+        <v>340.94882234608292</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3130.8798568288407</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2448.9822121366747</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>3471.8286791749233</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2108.0333897905921</v>
+      </c>
+      <c r="J22">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2014</v>
+      </c>
+      <c r="C23">
+        <v>83.734318908214902</v>
+      </c>
+      <c r="D23">
+        <v>3101.2656810917902</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.STDEV.P(D23:D51)</f>
+        <v>327.83532405769677</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3117.7663585404543</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2462.095710425061</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>3445.6016825981515</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2134.2603863673639</v>
+      </c>
+      <c r="J23">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>97.204607763801405</v>
+      </c>
+      <c r="D24">
+        <v>3211.7953922361999</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.STDEV.P(D24:D52)</f>
+        <v>327.44826948985815</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3117.3793039726161</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2462.4827649928993</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>3444.827573462474</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2135.0344955030414</v>
+      </c>
+      <c r="J24">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2016</v>
+      </c>
+      <c r="C25">
+        <v>-453.06815654727399</v>
+      </c>
+      <c r="D25">
+        <v>3125.0681565472701</v>
+      </c>
+      <c r="E25">
+        <f>_xlfn.STDEV.P(D25:D53)</f>
+        <v>336.30306689477533</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3126.2341013775331</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2453.6279675879823</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>3462.5371682723085</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2117.3249006932069</v>
+      </c>
+      <c r="J25">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26">
+        <v>364.027972520037</v>
+      </c>
+      <c r="D26">
+        <v>3365.9720274799602</v>
+      </c>
+      <c r="E26">
+        <f>_xlfn.STDEV.P(D26:D54)</f>
+        <v>326.39542936568063</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3116.3264638484384</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2463.535605117077</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>3442.7218932141191</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2137.1401757513963</v>
+      </c>
+      <c r="J26">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>-205.556966734414</v>
+      </c>
+      <c r="D27">
+        <v>3640.5569667344098</v>
+      </c>
+      <c r="E27">
+        <f>_xlfn.STDEV.P(D27:D55)</f>
+        <v>346.39237505047771</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3136.3234095332355</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>2443.5386594322799</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>3482.7157845837132</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2097.1462843818022</v>
+      </c>
+      <c r="J27">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28">
+        <v>14.7038816220713</v>
+      </c>
+      <c r="D28">
+        <v>3393.2961183779298</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.STDEV.P(D28:D56)</f>
+        <v>385.94143190365821</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>3175.8724663864159</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2403.9896025790995</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>3561.8138982900741</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2018.0481706754413</v>
+      </c>
+      <c r="J28">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>280.81013808847098</v>
+      </c>
+      <c r="D29">
+        <v>3134.18986191153</v>
+      </c>
+      <c r="E29">
+        <f>_xlfn.STDEV.P(D29:D57)</f>
+        <v>430.03852502604275</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3219.9695595088006</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2359.8925094567148</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>3650.008084534843</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1929.8539844306722</v>
+      </c>
+      <c r="J29">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2021</v>
+      </c>
+      <c r="C30">
+        <v>145.91369646953299</v>
+      </c>
+      <c r="D30">
+        <v>3565.0863035304701</v>
+      </c>
+      <c r="E30">
+        <f>_xlfn.STDEV.P(D30:D58)</f>
+        <v>308.49256723434974</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3098.4236017171074</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>2481.438467248408</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>3406.9161689514572</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2172.9459000140582</v>
+      </c>
+      <c r="J30">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2022</v>
+      </c>
+      <c r="C31">
+        <v>-344.07143799917299</v>
+      </c>
+      <c r="D31">
+        <v>4182.0714379991696</v>
+      </c>
+      <c r="E31">
+        <f>_xlfn.STDEV.P(D31:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="J31">
+        <v>3838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BE7346-DFF9-4F39-8295-2A32804F99B3}">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
       <c r="C3" s="11" t="s">
         <v>17</v>
@@ -4276,7 +6473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
@@ -4305,7 +6502,7 @@
         <v>126994887993.28</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
@@ -4334,7 +6531,7 @@
         <v>2930.53</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
@@ -4363,7 +6560,7 @@
         <v>69.83</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
@@ -4392,7 +6589,7 @@
         <v>10207.14</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
@@ -4421,7 +6618,7 @@
         <v>30182358156010.5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
@@ -4450,7 +6647,7 @@
         <v>663817.81999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -4479,7 +6676,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -4508,12 +6705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="11" t="s">
         <v>17</v>
@@ -4540,235 +6737,235 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="41" t="s">
         <v>40</v>
       </c>
     </row>

--- a/regression-results/Report - Regression Runs_Summaries-JI.xlsx
+++ b/regression-results/Report - Regression Runs_Summaries-JI.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sifaat\FFC-Forecasting-Study\forecasting-study\regression-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9622E1-AA45-4741-A0EB-ABDE2FE48BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CAD728-F918-4601-B79E-A7159B8F03BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5D1C55E5-96A3-4B43-BCBA-98C20E0AFC06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5D1C55E5-96A3-4B43-BCBA-98C20E0AFC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlations" sheetId="1" r:id="rId1"/>
     <sheet name="Regression 1st Run" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="F-ratios" sheetId="3" r:id="rId4"/>
+    <sheet name="F-ratios" sheetId="3" r:id="rId3"/>
+    <sheet name="best-fit-line" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -875,7 +875,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'best-fit-line'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -972,7 +972,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$31</c:f>
+              <c:f>'best-fit-line'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -1068,7 +1068,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$31</c:f>
+              <c:f>'best-fit-line'!$D$3:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -3065,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1F66F-6B1A-47BA-B6E8-50FB1B5C3937}">
   <dimension ref="B2:S288"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
@@ -5384,1046 +5384,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD79EFD-9FE4-4EF9-A20D-9E4A8F8AE032}">
-  <dimension ref="B1:O31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1">
-        <f>AVERAGE(D3:D31)</f>
-        <v>2789.9310344827577</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1994</v>
-      </c>
-      <c r="C3">
-        <v>-166.048954548067</v>
-      </c>
-      <c r="D3">
-        <v>1825.04895454807</v>
-      </c>
-      <c r="E3">
-        <f>_xlfn.STDEV.P(D3:D31)</f>
-        <v>586.93468084352787</v>
-      </c>
-      <c r="F3">
-        <f>$O$1+$E3</f>
-        <v>3376.8657153262857</v>
-      </c>
-      <c r="G3">
-        <f>$O$1 -E3</f>
-        <v>2202.9963536392297</v>
-      </c>
-      <c r="H3">
-        <f>$O$1+2*$E3</f>
-        <v>3963.8003961698132</v>
-      </c>
-      <c r="I3">
-        <f>$O$1-2*$E3</f>
-        <v>1616.061672795702</v>
-      </c>
-      <c r="J3">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1995</v>
-      </c>
-      <c r="C4">
-        <v>-213.853731216478</v>
-      </c>
-      <c r="D4">
-        <v>1951.8537312164799</v>
-      </c>
-      <c r="E4">
-        <f>_xlfn.STDEV.P(D4:D32)</f>
-        <v>567.76598333800234</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F31" si="0">$O$1+$E4</f>
-        <v>3357.6970178207603</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G31" si="1">$O$1 -E4</f>
-        <v>2222.1650511447551</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H31" si="2">$O$1+2*$E4</f>
-        <v>3925.4630011587624</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I31" si="3">$O$1-2*$E4</f>
-        <v>1654.399067806753</v>
-      </c>
-      <c r="J4">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1996</v>
-      </c>
-      <c r="C5">
-        <v>-124.519787262807</v>
-      </c>
-      <c r="D5">
-        <v>2115.51978726281</v>
-      </c>
-      <c r="E5">
-        <f>_xlfn.STDEV.P(D5:D33)</f>
-        <v>552.31872724285518</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3342.2497617256131</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>2237.6123072399023</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>3894.568488968468</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>1685.2935799970473</v>
-      </c>
-      <c r="J5">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1997</v>
-      </c>
-      <c r="C6">
-        <v>-128.814626634951</v>
-      </c>
-      <c r="D6">
-        <v>2113.8146266349499</v>
-      </c>
-      <c r="E6">
-        <f>_xlfn.STDEV.P(D6:D34)</f>
-        <v>542.99820206796392</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3332.9292365507217</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>2246.9328324147937</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>3875.9274386186853</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>1703.9346303468299</v>
-      </c>
-      <c r="J6">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1998</v>
-      </c>
-      <c r="C7">
-        <v>137.68380825735201</v>
-      </c>
-      <c r="D7">
-        <v>1950.3161917426501</v>
-      </c>
-      <c r="E7">
-        <f>_xlfn.STDEV.P(D7:D35)</f>
-        <v>530.92986828551034</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>3320.8609027682678</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>2259.0011661972476</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>3851.7907710537784</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>1728.071297911737</v>
-      </c>
-      <c r="J7">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1999</v>
-      </c>
-      <c r="C8">
-        <v>-82.4422029938181</v>
-      </c>
-      <c r="D8">
-        <v>2180.44220299382</v>
-      </c>
-      <c r="E8">
-        <f>_xlfn.STDEV.P(D8:D36)</f>
-        <v>503.1409670540977</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>3293.0720015368552</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>2286.7900674286602</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>3796.2129685909531</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>1783.6491003745623</v>
-      </c>
-      <c r="J8">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9">
-        <v>-5.6098416359839698</v>
-      </c>
-      <c r="D9">
-        <v>2223.60984163598</v>
-      </c>
-      <c r="E9">
-        <f>_xlfn.STDEV.P(D9:D37)</f>
-        <v>486.66907108591653</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>3276.6001055686743</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>2303.2619633968411</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>3763.2691766545909</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>1816.5928923109245</v>
-      </c>
-      <c r="J9">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>2001</v>
-      </c>
-      <c r="C10">
-        <v>-172.15601377960499</v>
-      </c>
-      <c r="D10">
-        <v>2437.1560137796</v>
-      </c>
-      <c r="E10">
-        <f>_xlfn.STDEV.P(D10:D38)</f>
-        <v>468.7194491042211</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>3258.6504835869787</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>2321.2115853785367</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>3727.3699326912001</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>1852.4921362743155</v>
-      </c>
-      <c r="J10">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>2002</v>
-      </c>
-      <c r="C11">
-        <v>-5.0597972751247804</v>
-      </c>
-      <c r="D11">
-        <v>2290.0597972751202</v>
-      </c>
-      <c r="E11">
-        <f>_xlfn.STDEV.P(D11:D39)</f>
-        <v>461.4410302416498</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3251.3720647244077</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>2328.4900042411077</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>3712.8130949660572</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>1867.0489739994582</v>
-      </c>
-      <c r="J11">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2003</v>
-      </c>
-      <c r="C12">
-        <v>172.963073338058</v>
-      </c>
-      <c r="D12">
-        <v>2176.03692666194</v>
-      </c>
-      <c r="E12">
-        <f>_xlfn.STDEV.P(D12:D40)</f>
-        <v>439.34686342019546</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>3229.2778979029531</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>2350.5841710625623</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>3668.6247613231485</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>1911.2373076423669</v>
-      </c>
-      <c r="J12">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>2004</v>
-      </c>
-      <c r="C13">
-        <v>129.01156181154599</v>
-      </c>
-      <c r="D13">
-        <v>2397.9884381884499</v>
-      </c>
-      <c r="E13">
-        <f>_xlfn.STDEV.P(D13:D41)</f>
-        <v>395.98496512443353</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3185.9159996071912</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>2393.9460693583242</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>3581.9009647316248</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>1997.9611042338906</v>
-      </c>
-      <c r="J13">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>2005</v>
-      </c>
-      <c r="C14">
-        <v>242.78607150750099</v>
-      </c>
-      <c r="D14">
-        <v>2553.2139284925001</v>
-      </c>
-      <c r="E14">
-        <f>_xlfn.STDEV.P(D14:D42)</f>
-        <v>365.10390109126251</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3155.03493557402</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>2424.8271333914954</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>3520.1388366652827</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>2059.7232323002327</v>
-      </c>
-      <c r="J14">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>2006</v>
-      </c>
-      <c r="C15">
-        <v>258.94626172275599</v>
-      </c>
-      <c r="D15">
-        <v>2668.05373827724</v>
-      </c>
-      <c r="E15">
-        <f>_xlfn.STDEV.P(D15:D43)</f>
-        <v>341.53557548730549</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3131.466609970063</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>2448.3954589954524</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>3473.0021854573688</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>2106.8598835081466</v>
-      </c>
-      <c r="J15">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>2007</v>
-      </c>
-      <c r="C16">
-        <v>-85.9970896692259</v>
-      </c>
-      <c r="D16">
-        <v>2734.9970896692298</v>
-      </c>
-      <c r="E16">
-        <f>_xlfn.STDEV.P(D16:D44)</f>
-        <v>322.3492944846991</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>3112.2803289674566</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>2467.5817399980588</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>3434.629623452156</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>2145.2324455133594</v>
-      </c>
-      <c r="J16">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2008</v>
-      </c>
-      <c r="C17">
-        <v>-80.4702842695539</v>
-      </c>
-      <c r="D17">
-        <v>3005.4702842695501</v>
-      </c>
-      <c r="E17">
-        <f>_xlfn.STDEV.P(D17:D45)</f>
-        <v>303.08676445660467</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3093.0177989393624</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>2486.844270026153</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>3396.104563395967</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>2183.7575055695484</v>
-      </c>
-      <c r="J17">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>2009</v>
-      </c>
-      <c r="C18">
-        <v>-139.03513408674701</v>
-      </c>
-      <c r="D18">
-        <v>3173.0351340867501</v>
-      </c>
-      <c r="E18">
-        <f>_xlfn.STDEV.P(D18:D46)</f>
-        <v>303.97487335634611</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>3093.9059078391037</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>2485.9561611264116</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>3397.8807811954498</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>2181.9812877700656</v>
-      </c>
-      <c r="J18">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>2010</v>
-      </c>
-      <c r="C19">
-        <v>342.18181120463203</v>
-      </c>
-      <c r="D19">
-        <v>3133.8181887953701</v>
-      </c>
-      <c r="E19">
-        <f>_xlfn.STDEV.P(D19:D47)</f>
-        <v>313.11854980290161</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3103.0495842856594</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>2476.812484679856</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>3416.1681340885607</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>2163.6939348769547</v>
-      </c>
-      <c r="J19">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>2011</v>
-      </c>
-      <c r="C20">
-        <v>-49.637121126483002</v>
-      </c>
-      <c r="D20">
-        <v>3183.63712112648</v>
-      </c>
-      <c r="E20">
-        <f>_xlfn.STDEV.P(D20:D48)</f>
-        <v>321.26093685279153</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>3111.1919713355492</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>2468.6700976299662</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>3432.4529081883406</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>2147.4091607771747</v>
-      </c>
-      <c r="J20">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2012</v>
-      </c>
-      <c r="C21">
-        <v>79.943843467533299</v>
-      </c>
-      <c r="D21">
-        <v>3127.0561565324701</v>
-      </c>
-      <c r="E21">
-        <f>_xlfn.STDEV.P(D21:D49)</f>
-        <v>332.30103395189457</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>3122.2320684346523</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>2457.6300005308631</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>3454.5331023865469</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>2125.3289665789684</v>
-      </c>
-      <c r="J21">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>2013</v>
-      </c>
-      <c r="C22">
-        <v>-93.569900901797496</v>
-      </c>
-      <c r="D22">
-        <v>2947.5699009017999</v>
-      </c>
-      <c r="E22">
-        <f>_xlfn.STDEV.P(D22:D50)</f>
-        <v>340.94882234608292</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>3130.8798568288407</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>2448.9822121366747</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>3471.8286791749233</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>2108.0333897905921</v>
-      </c>
-      <c r="J22">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>2014</v>
-      </c>
-      <c r="C23">
-        <v>83.734318908214902</v>
-      </c>
-      <c r="D23">
-        <v>3101.2656810917902</v>
-      </c>
-      <c r="E23">
-        <f>_xlfn.STDEV.P(D23:D51)</f>
-        <v>327.83532405769677</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>3117.7663585404543</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>2462.095710425061</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>3445.6016825981515</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>2134.2603863673639</v>
-      </c>
-      <c r="J23">
-        <v>3185</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>2015</v>
-      </c>
-      <c r="C24">
-        <v>97.204607763801405</v>
-      </c>
-      <c r="D24">
-        <v>3211.7953922361999</v>
-      </c>
-      <c r="E24">
-        <f>_xlfn.STDEV.P(D24:D52)</f>
-        <v>327.44826948985815</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>3117.3793039726161</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>2462.4827649928993</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>3444.827573462474</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>2135.0344955030414</v>
-      </c>
-      <c r="J24">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>2016</v>
-      </c>
-      <c r="C25">
-        <v>-453.06815654727399</v>
-      </c>
-      <c r="D25">
-        <v>3125.0681565472701</v>
-      </c>
-      <c r="E25">
-        <f>_xlfn.STDEV.P(D25:D53)</f>
-        <v>336.30306689477533</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>3126.2341013775331</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>2453.6279675879823</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>3462.5371682723085</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>2117.3249006932069</v>
-      </c>
-      <c r="J25">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>2017</v>
-      </c>
-      <c r="C26">
-        <v>364.027972520037</v>
-      </c>
-      <c r="D26">
-        <v>3365.9720274799602</v>
-      </c>
-      <c r="E26">
-        <f>_xlfn.STDEV.P(D26:D54)</f>
-        <v>326.39542936568063</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>3116.3264638484384</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>2463.535605117077</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>3442.7218932141191</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>2137.1401757513963</v>
-      </c>
-      <c r="J26">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>2018</v>
-      </c>
-      <c r="C27">
-        <v>-205.556966734414</v>
-      </c>
-      <c r="D27">
-        <v>3640.5569667344098</v>
-      </c>
-      <c r="E27">
-        <f>_xlfn.STDEV.P(D27:D55)</f>
-        <v>346.39237505047771</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>3136.3234095332355</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>2443.5386594322799</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>3482.7157845837132</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>2097.1462843818022</v>
-      </c>
-      <c r="J27">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>2019</v>
-      </c>
-      <c r="C28">
-        <v>14.7038816220713</v>
-      </c>
-      <c r="D28">
-        <v>3393.2961183779298</v>
-      </c>
-      <c r="E28">
-        <f>_xlfn.STDEV.P(D28:D56)</f>
-        <v>385.94143190365821</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>3175.8724663864159</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>2403.9896025790995</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>3561.8138982900741</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
-        <v>2018.0481706754413</v>
-      </c>
-      <c r="J28">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>2020</v>
-      </c>
-      <c r="C29">
-        <v>280.81013808847098</v>
-      </c>
-      <c r="D29">
-        <v>3134.18986191153</v>
-      </c>
-      <c r="E29">
-        <f>_xlfn.STDEV.P(D29:D57)</f>
-        <v>430.03852502604275</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3219.9695595088006</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>2359.8925094567148</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>3650.008084534843</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>1929.8539844306722</v>
-      </c>
-      <c r="J29">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>2021</v>
-      </c>
-      <c r="C30">
-        <v>145.91369646953299</v>
-      </c>
-      <c r="D30">
-        <v>3565.0863035304701</v>
-      </c>
-      <c r="E30">
-        <f>_xlfn.STDEV.P(D30:D58)</f>
-        <v>308.49256723434974</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>3098.4236017171074</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>2481.438467248408</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>3406.9161689514572</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>2172.9459000140582</v>
-      </c>
-      <c r="J30">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>2022</v>
-      </c>
-      <c r="C31">
-        <v>-344.07143799917299</v>
-      </c>
-      <c r="D31">
-        <v>4182.0714379991696</v>
-      </c>
-      <c r="E31">
-        <f>_xlfn.STDEV.P(D31:D59)</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>2789.9310344827577</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>2789.9310344827577</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>2789.9310344827577</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>2789.9310344827577</v>
-      </c>
-      <c r="J31">
-        <v>3838</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BE7346-DFF9-4F39-8295-2A32804F99B3}">
   <dimension ref="B2:J25"/>
   <sheetViews>
@@ -6972,4 +5932,1044 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD79EFD-9FE4-4EF9-A20D-9E4A8F8AE032}">
+  <dimension ref="B1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1">
+        <f>AVERAGE(D3:D31)</f>
+        <v>2789.9310344827577</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1994</v>
+      </c>
+      <c r="C3">
+        <v>-166.048954548067</v>
+      </c>
+      <c r="D3">
+        <v>1825.04895454807</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="0">_xlfn.STDEV.P(D3:D31)</f>
+        <v>586.93468084352787</v>
+      </c>
+      <c r="F3">
+        <f>$O$1+$E3</f>
+        <v>3376.8657153262857</v>
+      </c>
+      <c r="G3">
+        <f>$O$1 -E3</f>
+        <v>2202.9963536392297</v>
+      </c>
+      <c r="H3">
+        <f>$O$1+2*$E3</f>
+        <v>3963.8003961698132</v>
+      </c>
+      <c r="I3">
+        <f>$O$1-2*$E3</f>
+        <v>1616.061672795702</v>
+      </c>
+      <c r="J3">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1995</v>
+      </c>
+      <c r="C4">
+        <v>-213.853731216478</v>
+      </c>
+      <c r="D4">
+        <v>1951.8537312164799</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>567.76598333800234</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F31" si="1">$O$1+$E4</f>
+        <v>3357.6970178207603</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G31" si="2">$O$1 -E4</f>
+        <v>2222.1650511447551</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H31" si="3">$O$1+2*$E4</f>
+        <v>3925.4630011587624</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I31" si="4">$O$1-2*$E4</f>
+        <v>1654.399067806753</v>
+      </c>
+      <c r="J4">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1996</v>
+      </c>
+      <c r="C5">
+        <v>-124.519787262807</v>
+      </c>
+      <c r="D5">
+        <v>2115.51978726281</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>552.31872724285518</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3342.2497617256131</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2237.6123072399023</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>3894.568488968468</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1685.2935799970473</v>
+      </c>
+      <c r="J5">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1997</v>
+      </c>
+      <c r="C6">
+        <v>-128.814626634951</v>
+      </c>
+      <c r="D6">
+        <v>2113.8146266349499</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>542.99820206796392</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3332.9292365507217</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2246.9328324147937</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>3875.9274386186853</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1703.9346303468299</v>
+      </c>
+      <c r="J6">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1998</v>
+      </c>
+      <c r="C7">
+        <v>137.68380825735201</v>
+      </c>
+      <c r="D7">
+        <v>1950.3161917426501</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>530.92986828551034</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3320.8609027682678</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2259.0011661972476</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>3851.7907710537784</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>1728.071297911737</v>
+      </c>
+      <c r="J7">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1999</v>
+      </c>
+      <c r="C8">
+        <v>-82.4422029938181</v>
+      </c>
+      <c r="D8">
+        <v>2180.44220299382</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>503.1409670540977</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3293.0720015368552</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2286.7900674286602</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>3796.2129685909531</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>1783.6491003745623</v>
+      </c>
+      <c r="J8">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>-5.6098416359839698</v>
+      </c>
+      <c r="D9">
+        <v>2223.60984163598</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>486.66907108591653</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3276.6001055686743</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2303.2619633968411</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>3763.2691766545909</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1816.5928923109245</v>
+      </c>
+      <c r="J9">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10">
+        <v>-172.15601377960499</v>
+      </c>
+      <c r="D10">
+        <v>2437.1560137796</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>468.7194491042211</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3258.6504835869787</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2321.2115853785367</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>3727.3699326912001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>1852.4921362743155</v>
+      </c>
+      <c r="J10">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11">
+        <v>-5.0597972751247804</v>
+      </c>
+      <c r="D11">
+        <v>2290.0597972751202</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>461.4410302416498</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3251.3720647244077</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2328.4900042411077</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3712.8130949660572</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>1867.0489739994582</v>
+      </c>
+      <c r="J11">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12">
+        <v>172.963073338058</v>
+      </c>
+      <c r="D12">
+        <v>2176.03692666194</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>439.34686342019546</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3229.2778979029531</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2350.5841710625623</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>3668.6247613231485</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>1911.2373076423669</v>
+      </c>
+      <c r="J12">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2004</v>
+      </c>
+      <c r="C13">
+        <v>129.01156181154599</v>
+      </c>
+      <c r="D13">
+        <v>2397.9884381884499</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>395.98496512443353</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3185.9159996071912</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2393.9460693583242</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>3581.9009647316248</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1997.9611042338906</v>
+      </c>
+      <c r="J13">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2005</v>
+      </c>
+      <c r="C14">
+        <v>242.78607150750099</v>
+      </c>
+      <c r="D14">
+        <v>2553.2139284925001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>365.10390109126251</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3155.03493557402</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2424.8271333914954</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>3520.1388366652827</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>2059.7232323002327</v>
+      </c>
+      <c r="J14">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15">
+        <v>258.94626172275599</v>
+      </c>
+      <c r="D15">
+        <v>2668.05373827724</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>341.53557548730549</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3131.466609970063</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2448.3954589954524</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>3473.0021854573688</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>2106.8598835081466</v>
+      </c>
+      <c r="J15">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2007</v>
+      </c>
+      <c r="C16">
+        <v>-85.9970896692259</v>
+      </c>
+      <c r="D16">
+        <v>2734.9970896692298</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>322.3492944846991</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3112.2803289674566</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2467.5817399980588</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>3434.629623452156</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>2145.2324455133594</v>
+      </c>
+      <c r="J16">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2008</v>
+      </c>
+      <c r="C17">
+        <v>-80.4702842695539</v>
+      </c>
+      <c r="D17">
+        <v>3005.4702842695501</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>303.08676445660467</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3093.0177989393624</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2486.844270026153</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>3396.104563395967</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>2183.7575055695484</v>
+      </c>
+      <c r="J17">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2009</v>
+      </c>
+      <c r="C18">
+        <v>-139.03513408674701</v>
+      </c>
+      <c r="D18">
+        <v>3173.0351340867501</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>303.97487335634611</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>3093.9059078391037</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2485.9561611264116</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>3397.8807811954498</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>2181.9812877700656</v>
+      </c>
+      <c r="J18">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>342.18181120463203</v>
+      </c>
+      <c r="D19">
+        <v>3133.8181887953701</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>313.11854980290161</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3103.0495842856594</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>2476.812484679856</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>3416.1681340885607</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>2163.6939348769547</v>
+      </c>
+      <c r="J19">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>-49.637121126483002</v>
+      </c>
+      <c r="D20">
+        <v>3183.63712112648</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>321.26093685279153</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3111.1919713355492</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2468.6700976299662</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>3432.4529081883406</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>2147.4091607771747</v>
+      </c>
+      <c r="J20">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2012</v>
+      </c>
+      <c r="C21">
+        <v>79.943843467533299</v>
+      </c>
+      <c r="D21">
+        <v>3127.0561565324701</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>332.30103395189457</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3122.2320684346523</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2457.6300005308631</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>3454.5331023865469</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>2125.3289665789684</v>
+      </c>
+      <c r="J21">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2013</v>
+      </c>
+      <c r="C22">
+        <v>-93.569900901797496</v>
+      </c>
+      <c r="D22">
+        <v>2947.5699009017999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>340.94882234608292</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3130.8798568288407</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>2448.9822121366747</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>3471.8286791749233</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>2108.0333897905921</v>
+      </c>
+      <c r="J22">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2014</v>
+      </c>
+      <c r="C23">
+        <v>83.734318908214902</v>
+      </c>
+      <c r="D23">
+        <v>3101.2656810917902</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>327.83532405769677</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3117.7663585404543</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2462.095710425061</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>3445.6016825981515</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>2134.2603863673639</v>
+      </c>
+      <c r="J23">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>97.204607763801405</v>
+      </c>
+      <c r="D24">
+        <v>3211.7953922361999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>327.44826948985815</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3117.3793039726161</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2462.4827649928993</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>3444.827573462474</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>2135.0344955030414</v>
+      </c>
+      <c r="J24">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2016</v>
+      </c>
+      <c r="C25">
+        <v>-453.06815654727399</v>
+      </c>
+      <c r="D25">
+        <v>3125.0681565472701</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>336.30306689477533</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3126.2341013775331</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2453.6279675879823</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>3462.5371682723085</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>2117.3249006932069</v>
+      </c>
+      <c r="J25">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26">
+        <v>364.027972520037</v>
+      </c>
+      <c r="D26">
+        <v>3365.9720274799602</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>326.39542936568063</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>3116.3264638484384</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2463.535605117077</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>3442.7218932141191</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>2137.1401757513963</v>
+      </c>
+      <c r="J26">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>-205.556966734414</v>
+      </c>
+      <c r="D27">
+        <v>3640.5569667344098</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>346.39237505047771</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>3136.3234095332355</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2443.5386594322799</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>3482.7157845837132</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>2097.1462843818022</v>
+      </c>
+      <c r="J27">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="C28">
+        <v>14.7038816220713</v>
+      </c>
+      <c r="D28">
+        <v>3393.2961183779298</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>385.94143190365821</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>3175.8724663864159</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>2403.9896025790995</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>3561.8138982900741</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>2018.0481706754413</v>
+      </c>
+      <c r="J28">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>280.81013808847098</v>
+      </c>
+      <c r="D29">
+        <v>3134.18986191153</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>430.03852502604275</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>3219.9695595088006</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2359.8925094567148</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>3650.008084534843</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1929.8539844306722</v>
+      </c>
+      <c r="J29">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2021</v>
+      </c>
+      <c r="C30">
+        <v>145.91369646953299</v>
+      </c>
+      <c r="D30">
+        <v>3565.0863035304701</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>308.49256723434974</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>3098.4236017171074</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>2481.438467248408</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>3406.9161689514572</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>2172.9459000140582</v>
+      </c>
+      <c r="J30">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2022</v>
+      </c>
+      <c r="C31">
+        <v>-344.07143799917299</v>
+      </c>
+      <c r="D31">
+        <v>4182.0714379991696</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>2789.9310344827577</v>
+      </c>
+      <c r="J31">
+        <v>3838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>